--- a/data/TotalAssets.xlsx
+++ b/data/TotalAssets.xlsx
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6673281.769352525</v>
+        <v>1257637.513955329</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5000371.236463705</v>
+        <v>1193559.431686712</v>
       </c>
     </row>
   </sheetData>

--- a/data/TotalAssets.xlsx
+++ b/data/TotalAssets.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1257637.513955329</v>
+        <v>10480657.42396484</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,18 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1193559.431686712</v>
+        <v>13635321.70967972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>22288917.99584536</v>
       </c>
     </row>
   </sheetData>
